--- a/biology/Médecine/Soins_de_suite_et_de_réadaptation/Soins_de_suite_et_de_réadaptation.xlsx
+++ b/biology/Médecine/Soins_de_suite_et_de_réadaptation/Soins_de_suite_et_de_réadaptation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soins_de_suite_et_de_r%C3%A9adaptation</t>
+          <t>Soins_de_suite_et_de_réadaptation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les soins de suite et de réadaptation (SSR) désignent un dispositif de soins français, qui a pour objet de prévenir ou de réduire les conséquences fonctionnelles, physiques, cognitives, psychologiques ou sociales des déficiences et des limitations de capacité des patients et de promouvoir leur réadaptation et leur réinsertion. Les SSR ont 460 établissements sur le territoire français. Les SSR étaient appelés auparavant « moyen séjour ».
 Ils concernent, en 2014, 1 800 établissements de santé sur le territoire français, avec une capacité de 100 000 lits et 10 000 places[réf. nécessaire]. On dénombre 1,4 million de séjours, qui représentent 37 millions de journées. 80 % de ces séjours sont en hospitalisation complète. Les séjours sont de 35 jours en moyenne.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soins_de_suite_et_de_r%C3%A9adaptation</t>
+          <t>Soins_de_suite_et_de_réadaptation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Prises en charge spécialisées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En plus de leurs soins polyvalents, les SSR assurent 9 prises en charge spécialisées dans les affections :
 de l’appareil locomoteur ;
